--- a/biology/Zoologie/Heterophrynus_batesii/Heterophrynus_batesii.xlsx
+++ b/biology/Zoologie/Heterophrynus_batesii/Heterophrynus_batesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterophrynus batesii est une espèce d'amblypyges de la famille des Phrynidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, en Équateur et au Brésil dans les États d'Amazonas et du Pará[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, en Équateur et au Brésil dans les États d'Amazonas et du Pará.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrynus batesii par Arthur Gardiner Butler en 1873[2].
-Heterophrynus longimanus[3] a été placée en synonymie avec Heterophrynus batesii par Giupponi en 2002[4].
-Heterophrynus nicefori[5] a été placée en synonymie avec Heterophrynus batesii par Giupponi et Kury en 2013[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrynus batesii par Arthur Gardiner Butler en 1873.
+Heterophrynus longimanus a été placée en synonymie avec Heterophrynus batesii par Giupponi en 2002.
+Heterophrynus nicefori a été placée en synonymie avec Heterophrynus batesii par Giupponi et Kury en 2013.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Henry Walter Bates[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Henry Walter Bates.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Butler, 1873 : A monographic revision of the genus Phrynus. Annals and Magazine of Natural History, sér. 4, vol. 12, p. 117-125 (texte intégral).</t>
         </is>
